--- a/Assets/Excel_Data/Entity_roastItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_roastItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5677F07-C0D5-450D-B3B1-FA6DA5F1C569}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55812BAC-AB52-45A0-B6C2-F017BDF180F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="3255" windowWidth="23475" windowHeight="12060" xr2:uid="{AD91F624-6C63-47FF-A3DA-4AC1FDE4F128}"/>
+    <workbookView xWindow="4485" yWindow="2880" windowWidth="23475" windowHeight="12060" xr2:uid="{AD91F624-6C63-47FF-A3DA-4AC1FDE4F128}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -101,6 +101,14 @@
   </si>
   <si>
     <t>financier</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cookie_base_salad_Oil</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cookie_salad_oil</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -484,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C36FA586-621C-4CA3-8C3C-56B54F613127}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -509,7 +517,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A9" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A10" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -525,7 +533,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -537,10 +545,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
@@ -549,10 +557,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
@@ -561,10 +569,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
@@ -573,10 +581,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
@@ -585,10 +593,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
@@ -597,9 +605,21 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>17</v>
       </c>
     </row>
